--- a/www/ig/fhir/mesures/3.0.0/observations-summary.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/observations-summary.xlsx
@@ -68,21 +68,24 @@
     <t>dateTimeĵ, Periodĵ</t>
   </si>
   <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>mes-fr-observation-body-temperature</t>
+  </si>
+  <si>
+    <t>MesFrObservationBodyTemperature</t>
+  </si>
+  <si>
+    <t>null#8310-5</t>
+  </si>
+  <si>
     <t>Quantityĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>mes-fr-observation-body-temperature</t>
-  </si>
-  <si>
-    <t>MesFrObservationBodyTemperature</t>
-  </si>
-  <si>
-    <t>null#8310-5</t>
-  </si>
-  <si>
     <t>mes-fr-observation-body-weight</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>dateTime</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
     <t>LOINC#8480-6</t>
@@ -415,7 +415,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>19</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -441,7 +441,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>16</v>
@@ -450,7 +450,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>19</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -476,7 +476,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>16</v>
@@ -485,7 +485,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>19</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -511,13 +511,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>14</v>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -590,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>19</v>
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>19</v>
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>19</v>
@@ -730,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
@@ -765,7 +765,7 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>19</v>
@@ -800,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
@@ -835,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>19</v>

--- a/www/ig/fhir/mesures/3.0.0/observations-summary.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/observations-summary.xlsx
@@ -47,7 +47,7 @@
     <t>Method</t>
   </si>
   <si>
-    <t>mes-fr-observation-bmi</t>
+    <t>mesures-fr-observation-bmi</t>
   </si>
   <si>
     <t>MesFrObservationBmi</t>
@@ -68,54 +68,54 @@
     <t>dateTimeĵ, Periodĵ</t>
   </si>
   <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-body-temperature</t>
+  </si>
+  <si>
+    <t>MesFrObservationBodyTemperature</t>
+  </si>
+  <si>
+    <t>null#8310-5</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-body-weight</t>
+  </si>
+  <si>
+    <t>MesFrObservationBodyWeight</t>
+  </si>
+  <si>
+    <t>null#29463-7</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-bodyheight</t>
+  </si>
+  <si>
+    <t>MesFrObservationBodyHeight</t>
+  </si>
+  <si>
+    <t>null#8302-2</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-bp</t>
+  </si>
+  <si>
+    <t>MesFrObservationBp</t>
+  </si>
+  <si>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>mes-fr-observation-body-temperature</t>
-  </si>
-  <si>
-    <t>MesFrObservationBodyTemperature</t>
-  </si>
-  <si>
-    <t>null#8310-5</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>mes-fr-observation-body-weight</t>
-  </si>
-  <si>
-    <t>MesFrObservationBodyWeight</t>
-  </si>
-  <si>
-    <t>null#29463-7</t>
-  </si>
-  <si>
-    <t>mes-fr-observation-bodyheight</t>
-  </si>
-  <si>
-    <t>MesFrObservationBodyHeight</t>
-  </si>
-  <si>
-    <t>null#8302-2</t>
-  </si>
-  <si>
-    <t>mes-fr-observation-bp</t>
-  </si>
-  <si>
-    <t>MesFrObservationBp</t>
-  </si>
-  <si>
-    <t>null#85354-9</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>LOINC#8480-6</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>LOINC#8478-0</t>
   </si>
   <si>
-    <t>mes-fr-observation-heartrate</t>
+    <t>mesures-fr-observation-heartrate</t>
   </si>
   <si>
     <t>MesFrObservationHeartrate</t>
@@ -137,7 +137,7 @@
     <t>null#8867-4</t>
   </si>
   <si>
-    <t>mes-observation-glucose</t>
+    <t>mesures-observation-glucose</t>
   </si>
   <si>
     <t>MesObservationGlucose</t>
@@ -149,7 +149,7 @@
     <t>dateTimeĵ</t>
   </si>
   <si>
-    <t>mes-observation-head-circumference</t>
+    <t>mesures-observation-head-circumference</t>
   </si>
   <si>
     <t>MesObservationHeadCircumference</t>
@@ -158,7 +158,7 @@
     <t>LOINC#8287-5</t>
   </si>
   <si>
-    <t>mes-observation-pain-severity</t>
+    <t>mesures-observation-pain-severity</t>
   </si>
   <si>
     <t>MesObservationPainSeverity</t>
@@ -167,7 +167,7 @@
     <t>LOINC#72514-3</t>
   </si>
   <si>
-    <t>mes-observation-steps-by-day</t>
+    <t>mesures-observation-steps-by-day</t>
   </si>
   <si>
     <t>MesObservationStepsByDay</t>
@@ -176,7 +176,7 @@
     <t>null#41950-7</t>
   </si>
   <si>
-    <t>mes-observation-waist-circumference</t>
+    <t>mesures-observation-waist-circumference</t>
   </si>
   <si>
     <t>MesObservationWaistCircumference</t>
@@ -415,7 +415,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>19</v>
@@ -429,19 +429,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>26</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>16</v>
@@ -450,7 +450,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>19</v>
@@ -464,19 +464,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>16</v>
@@ -485,7 +485,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>19</v>
@@ -499,25 +499,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>14</v>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -590,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>19</v>
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>19</v>
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>19</v>
@@ -730,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
@@ -765,7 +765,7 @@
         <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>19</v>
@@ -800,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
@@ -835,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>19</v>
